--- a/data/Mode_Choice_Comparison.xlsx
+++ b/data/Mode_Choice_Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhanchaoyang/Desktop/Bogota-travel-survey-comp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EBB526-1F5C-614C-87C7-7FE4574F36F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B21CF84-126F-2A48-9C4D-3F692DB70A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="35800" windowHeight="19220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="270">
   <si>
     <t>2005 MODULOD D35_MEDIO</t>
   </si>
@@ -910,6 +910,9 @@
   </si>
   <si>
     <t>feeder bus?</t>
+  </si>
+  <si>
+    <t>sum</t>
   </si>
 </sst>
 </file>
@@ -6489,7 +6492,7 @@
   <dimension ref="A1:M80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="M81" sqref="M81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -8225,7 +8228,26 @@
       <c r="M79" s="7"/>
     </row>
     <row r="80" spans="1:13" ht="19">
-      <c r="A80" s="118"/>
+      <c r="A80" s="118" t="s">
+        <v>269</v>
+      </c>
+      <c r="D80">
+        <f>SUM(D2:D73)</f>
+        <v>90617</v>
+      </c>
+      <c r="G80">
+        <f>SUM(G2:G72)</f>
+        <v>122361</v>
+      </c>
+      <c r="J80">
+        <f>SUM(J2:J73)</f>
+        <v>193459</v>
+      </c>
+      <c r="K80"/>
+      <c r="M80">
+        <f>SUM(M2:M78)</f>
+        <v>152310</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Mode_Choice_Comparison.xlsx
+++ b/data/Mode_Choice_Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhanchaoyang/Desktop/Bogota-travel-survey-comp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B21CF84-126F-2A48-9C4D-3F692DB70A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADD1783-D83F-344E-980C-05AF31F4A9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="35800" windowHeight="19220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-920" yWindow="660" windowWidth="35800" windowHeight="19220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mode choice by each year" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="291">
   <si>
     <t>2005 MODULOD D35_MEDIO</t>
   </si>
@@ -913,13 +913,76 @@
   </si>
   <si>
     <t>sum</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Bicicleta con motor como conductor</t>
+  </si>
+  <si>
+    <t>Bicicleta con motor como pasajero</t>
+  </si>
+  <si>
+    <t>Bicicleta convencional como conductor</t>
+  </si>
+  <si>
+    <t>Bicicleta convencional como pasajero</t>
+  </si>
+  <si>
+    <t>Motocarro de pasajeros/ carga</t>
+  </si>
+  <si>
+    <t>SITP – Urbano/ Complementario/Especial /Provisional</t>
+  </si>
+  <si>
+    <t>Taxi convencional</t>
+  </si>
+  <si>
+    <t>Auto/moto alquilado(a)</t>
+  </si>
+  <si>
+    <t>Auto/moto compartido(a)</t>
+  </si>
+  <si>
+    <t>Auto/moto eléctrico(a)</t>
+  </si>
+  <si>
+    <t>Bus Dual</t>
+  </si>
+  <si>
+    <t>Bus/Buseta/Microbús intermunicipal</t>
+  </si>
+  <si>
+    <t>Bus/automóvil/Van informal o pirata</t>
+  </si>
+  <si>
+    <t>Camión/Volqueta /Tractomula</t>
+  </si>
+  <si>
+    <t>tren</t>
+  </si>
+  <si>
+    <t>Patineta/Scooter</t>
+  </si>
+  <si>
+    <t>Transporte individual solicitado por app móvil (placa blanca/placa amarilla)</t>
+  </si>
+  <si>
+    <t>TransMicable</t>
+  </si>
+  <si>
+    <t>Sistema de Bicicletas de Bogotá (Bicicleta pública)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1068,6 +1131,27 @@
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1357,12 +1441,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1784,9 +1869,103 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="19">
     <dxf>
@@ -6489,19 +6668,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M81" sqref="M81"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="47.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="191" customWidth="1"/>
     <col min="3" max="3" width="33.5" customWidth="1"/>
     <col min="4" max="4" width="28.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="191" customWidth="1"/>
     <col min="6" max="7" width="33.5" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" style="12" customWidth="1"/>
     <col min="9" max="9" width="76.5" customWidth="1"/>
@@ -6509,18 +6688,22 @@
     <col min="11" max="11" width="9" style="12"/>
     <col min="12" max="12" width="46.5" customWidth="1"/>
     <col min="13" max="13" width="35.1640625" customWidth="1"/>
+    <col min="15" max="15" width="25.33203125" customWidth="1"/>
+    <col min="16" max="16" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24" thickBot="1">
+    <row r="1" spans="1:17" ht="24" thickBot="1">
       <c r="A1" s="14"/>
-      <c r="B1" s="15">
+      <c r="B1" s="171" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="15">
         <v>2005</v>
       </c>
-      <c r="C1" s="14"/>
       <c r="D1" s="165" t="s">
         <v>265</v>
       </c>
-      <c r="E1" s="15">
+      <c r="E1" s="171">
         <v>2011</v>
       </c>
       <c r="F1" s="14"/>
@@ -6541,13 +6724,24 @@
       <c r="M1" s="169" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="19">
+      <c r="N1" s="169" t="s">
+        <v>271</v>
+      </c>
+      <c r="O1" s="169">
+        <v>2023</v>
+      </c>
+      <c r="P1" s="169" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q1" s="169"/>
+    </row>
+    <row r="2" spans="1:17" ht="19">
       <c r="A2" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="19">
-        <v>1</v>
+      <c r="B2" s="172">
+        <f>D2/$D$80</f>
+        <v>0.16172462120794112</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>7</v>
@@ -6555,8 +6749,9 @@
       <c r="D2" s="20">
         <v>14655</v>
       </c>
-      <c r="E2" s="19">
-        <v>17</v>
+      <c r="E2" s="172">
+        <f>G2/G80</f>
+        <v>0.4447086898603313</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>7</v>
@@ -6564,27 +6759,44 @@
       <c r="G2" s="20">
         <v>54415</v>
       </c>
-      <c r="H2" s="81"/>
+      <c r="H2" s="194">
+        <f>J2/J80</f>
+        <v>0.31530195028403951</v>
+      </c>
       <c r="I2" s="82" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="20">
         <v>60998</v>
       </c>
-      <c r="K2" s="53"/>
+      <c r="K2" s="196">
+        <f>M2/M80</f>
+        <v>0.32422690565294465</v>
+      </c>
       <c r="L2" s="102" t="s">
         <v>11</v>
       </c>
       <c r="M2" s="20">
         <v>49383</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="18">
+      <c r="N2" s="198">
+        <f>P2/P80</f>
+        <v>0.33665259587978497</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="20">
+        <v>37324</v>
+      </c>
+      <c r="Q2" s="20"/>
+    </row>
+    <row r="3" spans="1:17" ht="18">
       <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
-      <c r="E3" s="23"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
       <c r="H3" s="50"/>
@@ -6593,13 +6805,17 @@
       <c r="K3" s="60"/>
       <c r="L3" s="103"/>
       <c r="M3" s="24"/>
-    </row>
-    <row r="4" spans="1:13" ht="19" thickBot="1">
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+    </row>
+    <row r="4" spans="1:17" ht="19" thickBot="1">
       <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
+      <c r="B4" s="176"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
-      <c r="E4" s="30"/>
+      <c r="E4" s="173"/>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
       <c r="H4" s="30"/>
@@ -6608,13 +6824,18 @@
       <c r="K4" s="30"/>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
-    </row>
-    <row r="5" spans="1:13" ht="19">
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+    </row>
+    <row r="5" spans="1:17" ht="19">
       <c r="A5" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="B5" s="32">
-        <v>2</v>
+      <c r="B5" s="174">
+        <f>D5/D80</f>
+        <v>3.1782115938510436E-2</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>13</v>
@@ -6622,8 +6843,9 @@
       <c r="D5" s="33">
         <v>2880</v>
       </c>
-      <c r="E5" s="32">
-        <v>18</v>
+      <c r="E5" s="174">
+        <f>G5/G80</f>
+        <v>3.6768251321908127E-2</v>
       </c>
       <c r="F5" s="33" t="s">
         <v>13</v>
@@ -6631,32 +6853,45 @@
       <c r="G5" s="33">
         <v>4499</v>
       </c>
-      <c r="H5" s="68"/>
+      <c r="H5" s="195">
+        <f>(J5+J6+J7)/J80</f>
+        <v>5.4983226420068337E-2</v>
+      </c>
       <c r="I5" s="84" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="33">
         <v>10371</v>
       </c>
-      <c r="K5" s="68"/>
+      <c r="K5" s="195">
+        <f>SUM(M5:M8)/M80</f>
+        <v>5.2695161184426499E-2</v>
+      </c>
       <c r="L5" s="104" t="s">
         <v>13</v>
       </c>
       <c r="M5" s="33">
         <v>7631</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="18">
+      <c r="N5" s="199">
+        <f>SUM(P5:P9)/P80</f>
+        <v>5.7076884222679224E-2</v>
+      </c>
+      <c r="O5" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="P5" s="37">
+        <v>370</v>
+      </c>
+      <c r="Q5" s="37"/>
+    </row>
+    <row r="6" spans="1:17" ht="18">
       <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
-      <c r="E6" s="39">
-        <v>19</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>32</v>
-      </c>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="H6" s="51"/>
       <c r="I6" s="86" t="s">
@@ -6672,13 +6907,21 @@
       <c r="M6" s="37">
         <v>261</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="18">
+      <c r="N6" s="37"/>
+      <c r="O6" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="P6" s="37">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="37"/>
+    </row>
+    <row r="7" spans="1:17" ht="18">
       <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
-      <c r="E7" s="36"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
       <c r="H7" s="51"/>
@@ -6695,13 +6938,21 @@
       <c r="M7" s="40">
         <v>112</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="18">
+      <c r="N7" s="37"/>
+      <c r="O7" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="P7" s="37">
+        <v>5811</v>
+      </c>
+      <c r="Q7" s="37"/>
+    </row>
+    <row r="8" spans="1:17" ht="18">
       <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="37"/>
       <c r="D8" s="37"/>
-      <c r="E8" s="36"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>
       <c r="H8" s="51"/>
@@ -6714,13 +6965,21 @@
       <c r="M8" s="37">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="18">
+      <c r="N8" s="37"/>
+      <c r="O8" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="P8" s="37">
+        <v>90</v>
+      </c>
+      <c r="Q8" s="37"/>
+    </row>
+    <row r="9" spans="1:17" ht="18">
       <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="37"/>
       <c r="D9" s="37"/>
-      <c r="E9" s="36"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
       <c r="H9" s="51"/>
@@ -6729,13 +6988,21 @@
       <c r="K9" s="51"/>
       <c r="L9" s="105"/>
       <c r="M9" s="37"/>
-    </row>
-    <row r="10" spans="1:13" ht="19" thickBot="1">
+      <c r="N9" s="37"/>
+      <c r="O9" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="P9" s="40">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="37"/>
+    </row>
+    <row r="10" spans="1:17" ht="19" thickBot="1">
       <c r="A10" s="41"/>
-      <c r="B10" s="42"/>
+      <c r="B10" s="175"/>
       <c r="C10" s="43"/>
       <c r="D10" s="43"/>
-      <c r="E10" s="42"/>
+      <c r="E10" s="175"/>
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="52"/>
@@ -6744,13 +7011,18 @@
       <c r="K10" s="52"/>
       <c r="L10" s="107"/>
       <c r="M10" s="43"/>
-    </row>
-    <row r="11" spans="1:13" ht="19">
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+    </row>
+    <row r="11" spans="1:17" ht="19">
       <c r="A11" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="B11" s="19">
-        <v>4</v>
+      <c r="B11" s="172">
+        <f>(D11+D12)/D80</f>
+        <v>0.10724257037862653</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>28</v>
@@ -6758,8 +7030,9 @@
       <c r="D11" s="20">
         <v>7328</v>
       </c>
-      <c r="E11" s="19">
-        <v>22</v>
+      <c r="E11" s="172">
+        <f>G11/G80</f>
+        <v>0.12145209666478698</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>28</v>
@@ -6767,38 +7040,49 @@
       <c r="G11" s="20">
         <v>14861</v>
       </c>
-      <c r="H11" s="53"/>
+      <c r="H11" s="196">
+        <f>(J11+J12)/J80</f>
+        <v>9.3782145053990768E-2</v>
+      </c>
       <c r="I11" s="82" t="s">
         <v>157</v>
       </c>
       <c r="J11" s="167">
         <v>11712</v>
       </c>
-      <c r="K11" s="53"/>
+      <c r="K11" s="196">
+        <f>SUM(M11:M13)/M80</f>
+        <v>0.13177729630359136</v>
+      </c>
       <c r="L11" s="102" t="s">
         <v>26</v>
       </c>
       <c r="M11" s="20">
         <v>12131</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="18">
+      <c r="N11" s="200">
+        <f>SUM(P11:P15)/P80</f>
+        <v>0.11722949814193455</v>
+      </c>
+      <c r="O11" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="24">
+        <v>8369</v>
+      </c>
+      <c r="Q11" s="47"/>
+    </row>
+    <row r="12" spans="1:17" ht="18">
       <c r="A12" s="45"/>
-      <c r="B12" s="23">
-        <v>5</v>
-      </c>
+      <c r="B12" s="46"/>
       <c r="C12" s="24" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="24">
         <v>2390</v>
       </c>
-      <c r="E12" s="23">
-        <v>23</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>36</v>
-      </c>
+      <c r="E12" s="46"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="24"/>
       <c r="H12" s="60"/>
       <c r="I12" s="83" t="s">
@@ -6814,18 +7098,22 @@
       <c r="M12" s="24">
         <v>6932</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="18">
+      <c r="N12" s="47"/>
+      <c r="O12" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" s="24">
+        <v>3849</v>
+      </c>
+      <c r="Q12" s="47"/>
+    </row>
+    <row r="13" spans="1:17" ht="18">
       <c r="A13" s="45"/>
-      <c r="B13" s="23"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
-      <c r="E13" s="46">
-        <v>14</v>
-      </c>
-      <c r="F13" s="47" t="s">
-        <v>92</v>
-      </c>
+      <c r="E13" s="46"/>
+      <c r="F13" s="47"/>
       <c r="G13" s="47"/>
       <c r="H13" s="60"/>
       <c r="I13" s="24"/>
@@ -6837,10 +7125,18 @@
       <c r="M13" s="47">
         <v>1008</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="18">
+      <c r="N13" s="47"/>
+      <c r="O13" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="P13" s="24">
+        <v>192</v>
+      </c>
+      <c r="Q13" s="47"/>
+    </row>
+    <row r="14" spans="1:17" ht="18">
       <c r="A14" s="45"/>
-      <c r="B14" s="23"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
       <c r="E14" s="46"/>
@@ -6852,13 +7148,21 @@
       <c r="K14" s="60"/>
       <c r="L14" s="97"/>
       <c r="M14" s="47"/>
-    </row>
-    <row r="15" spans="1:13" ht="19" thickBot="1">
+      <c r="N14" s="47"/>
+      <c r="O14" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="P14" s="24">
+        <v>557</v>
+      </c>
+      <c r="Q14" s="47"/>
+    </row>
+    <row r="15" spans="1:17" ht="19" thickBot="1">
       <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
+      <c r="B15" s="176"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
-      <c r="E15" s="27"/>
+      <c r="E15" s="176"/>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
       <c r="H15" s="30"/>
@@ -6867,13 +7171,22 @@
       <c r="K15" s="30"/>
       <c r="L15" s="108"/>
       <c r="M15" s="28"/>
-    </row>
-    <row r="16" spans="1:13" ht="19">
+      <c r="N15" s="28"/>
+      <c r="O15" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="P15" s="28">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="28"/>
+    </row>
+    <row r="16" spans="1:17" ht="19">
       <c r="A16" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="B16" s="32">
-        <v>6</v>
+      <c r="B16" s="174">
+        <f>D16/D80</f>
+        <v>2.7367933169272874E-2</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>9</v>
@@ -6881,8 +7194,9 @@
       <c r="D16" s="33">
         <v>2480</v>
       </c>
-      <c r="E16" s="32">
-        <v>1</v>
+      <c r="E16" s="174">
+        <f>G16/G80</f>
+        <v>3.7552815030933058E-2</v>
       </c>
       <c r="F16" s="33" t="s">
         <v>9</v>
@@ -6890,32 +7204,45 @@
       <c r="G16" s="33">
         <v>4595</v>
       </c>
-      <c r="H16" s="68"/>
+      <c r="H16" s="195">
+        <f>SUM(J16:J19)/J80</f>
+        <v>3.3578174186778595E-2</v>
+      </c>
       <c r="I16" s="90" t="s">
         <v>44</v>
       </c>
       <c r="J16" s="91">
         <v>191</v>
       </c>
-      <c r="K16" s="68"/>
+      <c r="K16" s="195">
+        <f>SUM(M16:M21)/M80</f>
+        <v>5.2189613288687542E-2</v>
+      </c>
       <c r="L16" s="104" t="s">
         <v>44</v>
       </c>
       <c r="M16" s="33">
         <v>524</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="18">
+      <c r="N16" s="199">
+        <f>SUM(P16:P21)/P80</f>
+        <v>4.2645307933759063E-2</v>
+      </c>
+      <c r="O16" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="P16" s="37">
+        <v>149</v>
+      </c>
+      <c r="Q16" s="37"/>
+    </row>
+    <row r="17" spans="1:17" ht="18">
       <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
-      <c r="E17" s="36">
-        <v>11</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>70</v>
-      </c>
+      <c r="E17" s="39"/>
+      <c r="F17" s="37"/>
       <c r="G17" s="37"/>
       <c r="H17" s="51"/>
       <c r="I17" s="87" t="s">
@@ -6931,18 +7258,22 @@
       <c r="M17" s="37">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="18">
+      <c r="N17" s="37"/>
+      <c r="O17" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="P17" s="37">
+        <v>2403</v>
+      </c>
+      <c r="Q17" s="37"/>
+    </row>
+    <row r="18" spans="1:17" ht="18">
       <c r="A18" s="35"/>
-      <c r="B18" s="36"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
-      <c r="E18" s="36">
-        <v>12</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>44</v>
-      </c>
+      <c r="E18" s="39"/>
+      <c r="F18" s="37"/>
       <c r="G18" s="37"/>
       <c r="H18" s="51"/>
       <c r="I18" s="86" t="s">
@@ -6958,18 +7289,22 @@
       <c r="M18" s="37">
         <v>105</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="18">
+      <c r="N18" s="37"/>
+      <c r="O18" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="P18" s="37">
+        <v>968</v>
+      </c>
+      <c r="Q18" s="37"/>
+    </row>
+    <row r="19" spans="1:17" ht="18">
       <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="37"/>
       <c r="D19" s="37"/>
-      <c r="E19" s="36">
-        <v>13</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>84</v>
-      </c>
+      <c r="E19" s="39"/>
+      <c r="F19" s="37"/>
       <c r="G19" s="37"/>
       <c r="H19" s="51"/>
       <c r="I19" s="86" t="s">
@@ -6985,13 +7320,21 @@
       <c r="M19" s="37">
         <v>1539</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="18">
+      <c r="N19" s="37"/>
+      <c r="O19" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" s="37">
+        <v>80</v>
+      </c>
+      <c r="Q19" s="37"/>
+    </row>
+    <row r="20" spans="1:17" ht="18">
       <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="37"/>
       <c r="D20" s="37"/>
-      <c r="E20" s="36"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
       <c r="H20" s="51"/>
@@ -7004,13 +7347,21 @@
       <c r="M20" s="37">
         <v>5194</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="18">
+      <c r="N20" s="37"/>
+      <c r="O20" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="P20" s="37">
+        <v>376</v>
+      </c>
+      <c r="Q20" s="37"/>
+    </row>
+    <row r="21" spans="1:17" ht="18">
       <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="37"/>
       <c r="D21" s="37"/>
-      <c r="E21" s="48"/>
+      <c r="E21" s="177"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="51"/>
@@ -7023,13 +7374,21 @@
       <c r="M21" s="37">
         <v>536</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="18">
+      <c r="N21" s="37"/>
+      <c r="O21" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="P21" s="37">
+        <v>752</v>
+      </c>
+      <c r="Q21" s="37"/>
+    </row>
+    <row r="22" spans="1:17" ht="18">
       <c r="A22" s="35"/>
-      <c r="B22" s="36"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
-      <c r="E22" s="48"/>
+      <c r="E22" s="177"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="51"/>
@@ -7038,13 +7397,17 @@
       <c r="K22" s="51"/>
       <c r="L22" s="105"/>
       <c r="M22" s="37"/>
-    </row>
-    <row r="23" spans="1:13" ht="19" thickBot="1">
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+    </row>
+    <row r="23" spans="1:17" ht="19" thickBot="1">
       <c r="A23" s="41"/>
-      <c r="B23" s="42"/>
+      <c r="B23" s="175"/>
       <c r="C23" s="43"/>
       <c r="D23" s="43"/>
-      <c r="E23" s="49"/>
+      <c r="E23" s="178"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="52"/>
@@ -7053,13 +7416,18 @@
       <c r="K23" s="52"/>
       <c r="L23" s="107"/>
       <c r="M23" s="43"/>
-    </row>
-    <row r="24" spans="1:13" ht="19">
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+    </row>
+    <row r="24" spans="1:17" ht="19">
       <c r="A24" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="19">
-        <v>3</v>
+      <c r="B24" s="172">
+        <f>D24/D80</f>
+        <v>7.2392597415495991E-3</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>21</v>
@@ -7067,8 +7435,9 @@
       <c r="D24" s="20">
         <v>656</v>
       </c>
-      <c r="E24" s="19">
-        <v>20</v>
+      <c r="E24" s="172">
+        <f>G24/G80</f>
+        <v>2.2539861557195513E-2</v>
       </c>
       <c r="F24" s="20" t="s">
         <v>65</v>
@@ -7076,32 +7445,45 @@
       <c r="G24" s="20">
         <v>2758</v>
       </c>
-      <c r="H24" s="53"/>
+      <c r="H24" s="196">
+        <f>(J24+J25)/J80</f>
+        <v>4.0540889800939735E-2</v>
+      </c>
       <c r="I24" s="82" t="s">
         <v>65</v>
       </c>
       <c r="J24" s="168">
         <v>6693</v>
       </c>
-      <c r="K24" s="53"/>
+      <c r="K24" s="196">
+        <f>SUM(M24:M26)/M80</f>
+        <v>3.9426170310550852E-2</v>
+      </c>
       <c r="L24" s="102" t="s">
         <v>80</v>
       </c>
       <c r="M24" s="20">
         <v>4838</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="18">
+      <c r="N24" s="201">
+        <f>SUM(P24:P26)/P80</f>
+        <v>5.8691416820002167E-2</v>
+      </c>
+      <c r="O24" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="P24" s="24">
+        <v>43</v>
+      </c>
+      <c r="Q24" s="24"/>
+    </row>
+    <row r="25" spans="1:17" ht="18">
       <c r="A25" s="22"/>
-      <c r="B25" s="23"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
-      <c r="E25" s="23">
-        <v>21</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>72</v>
-      </c>
+      <c r="E25" s="46"/>
+      <c r="F25" s="24"/>
       <c r="G25" s="24"/>
       <c r="H25" s="60"/>
       <c r="I25" s="83" t="s">
@@ -7117,13 +7499,21 @@
       <c r="M25" s="24">
         <v>1131</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="18">
+      <c r="N25" s="24"/>
+      <c r="O25" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="P25" s="24">
+        <v>5777</v>
+      </c>
+      <c r="Q25" s="24"/>
+    </row>
+    <row r="26" spans="1:17" ht="18">
       <c r="A26" s="22"/>
-      <c r="B26" s="23"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
-      <c r="E26" s="50"/>
+      <c r="E26" s="179"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="60"/>
@@ -7136,13 +7526,21 @@
       <c r="M26" s="24">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="18">
+      <c r="N26" s="24"/>
+      <c r="O26" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="P26" s="24">
+        <v>687</v>
+      </c>
+      <c r="Q26" s="24"/>
+    </row>
+    <row r="27" spans="1:17" ht="18">
       <c r="A27" s="22"/>
-      <c r="B27" s="23"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
-      <c r="E27" s="23"/>
+      <c r="E27" s="46"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
       <c r="H27" s="60"/>
@@ -7151,13 +7549,17 @@
       <c r="K27" s="60"/>
       <c r="L27" s="103"/>
       <c r="M27" s="24"/>
-    </row>
-    <row r="28" spans="1:13" ht="18">
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+    </row>
+    <row r="28" spans="1:17" ht="18">
       <c r="A28" s="22"/>
-      <c r="B28" s="23"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
-      <c r="E28" s="23"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
       <c r="H28" s="60"/>
@@ -7166,13 +7568,17 @@
       <c r="K28" s="60"/>
       <c r="L28" s="103"/>
       <c r="M28" s="24"/>
-    </row>
-    <row r="29" spans="1:13" ht="19" thickBot="1">
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+    </row>
+    <row r="29" spans="1:17" ht="19" thickBot="1">
       <c r="A29" s="26"/>
-      <c r="B29" s="27"/>
+      <c r="B29" s="176"/>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
-      <c r="E29" s="27"/>
+      <c r="E29" s="176"/>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
       <c r="H29" s="30"/>
@@ -7181,23 +7587,23 @@
       <c r="K29" s="30"/>
       <c r="L29" s="108"/>
       <c r="M29" s="28"/>
-    </row>
-    <row r="30" spans="1:13" ht="19">
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+    </row>
+    <row r="30" spans="1:17" ht="19">
       <c r="A30" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B30" s="32">
-        <v>7</v>
-      </c>
+      <c r="B30" s="180"/>
       <c r="C30" s="33" t="s">
         <v>48</v>
       </c>
       <c r="D30" s="33">
         <v>7751</v>
       </c>
-      <c r="E30" s="32">
-        <v>24</v>
-      </c>
+      <c r="E30" s="180"/>
       <c r="F30" s="33" t="s">
         <v>140</v>
       </c>
@@ -7214,13 +7620,21 @@
       <c r="M30" s="33">
         <v>19343</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="18">
+      <c r="N30" s="37"/>
+      <c r="O30" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="P30" s="37">
+        <v>13076</v>
+      </c>
+      <c r="Q30" s="37"/>
+    </row>
+    <row r="31" spans="1:17" ht="18">
       <c r="A31" s="35"/>
-      <c r="B31" s="36"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="37"/>
       <c r="D31" s="37"/>
-      <c r="E31" s="51"/>
+      <c r="E31" s="181"/>
       <c r="F31" s="37"/>
       <c r="G31" s="37"/>
       <c r="H31" s="51"/>
@@ -7229,13 +7643,17 @@
       <c r="K31" s="51"/>
       <c r="L31" s="37"/>
       <c r="M31" s="37"/>
-    </row>
-    <row r="32" spans="1:13" ht="18">
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+    </row>
+    <row r="32" spans="1:17" ht="18">
       <c r="A32" s="35"/>
-      <c r="B32" s="36"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="37"/>
       <c r="D32" s="37"/>
-      <c r="E32" s="51"/>
+      <c r="E32" s="181"/>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
       <c r="H32" s="51"/>
@@ -7244,13 +7662,17 @@
       <c r="K32" s="51"/>
       <c r="L32" s="37"/>
       <c r="M32" s="37"/>
-    </row>
-    <row r="33" spans="1:13" ht="18">
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+    </row>
+    <row r="33" spans="1:17" ht="18">
       <c r="A33" s="35"/>
-      <c r="B33" s="36"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="37"/>
       <c r="D33" s="37"/>
-      <c r="E33" s="51"/>
+      <c r="E33" s="181"/>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
       <c r="H33" s="51"/>
@@ -7259,13 +7681,17 @@
       <c r="K33" s="51"/>
       <c r="L33" s="37"/>
       <c r="M33" s="37"/>
-    </row>
-    <row r="34" spans="1:13" ht="19" thickBot="1">
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+    </row>
+    <row r="34" spans="1:17" ht="19" thickBot="1">
       <c r="A34" s="41"/>
-      <c r="B34" s="42"/>
+      <c r="B34" s="175"/>
       <c r="C34" s="43"/>
       <c r="D34" s="43"/>
-      <c r="E34" s="52"/>
+      <c r="E34" s="182"/>
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="52"/>
@@ -7274,15 +7700,19 @@
       <c r="K34" s="52"/>
       <c r="L34" s="43"/>
       <c r="M34" s="43"/>
-    </row>
-    <row r="35" spans="1:13" ht="19">
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+    </row>
+    <row r="35" spans="1:17" ht="19">
       <c r="A35" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="B35" s="19"/>
+      <c r="B35" s="189"/>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
-      <c r="E35" s="53"/>
+      <c r="E35" s="183"/>
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
       <c r="H35" s="53"/>
@@ -7291,8 +7721,12 @@
       <c r="K35" s="53"/>
       <c r="L35" s="20"/>
       <c r="M35" s="20"/>
-    </row>
-    <row r="36" spans="1:13" ht="19">
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+    </row>
+    <row r="36" spans="1:17" ht="19">
       <c r="A36" s="54" t="s">
         <v>268</v>
       </c>
@@ -7303,9 +7737,7 @@
       <c r="D36" s="56">
         <v>2503</v>
       </c>
-      <c r="E36" s="55">
-        <v>2</v>
-      </c>
+      <c r="E36" s="55"/>
       <c r="F36" s="56" t="s">
         <v>266</v>
       </c>
@@ -7326,13 +7758,21 @@
       <c r="M36" s="93">
         <v>7343</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="18">
+      <c r="N36" s="24"/>
+      <c r="O36" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="P36" s="24">
+        <v>4149</v>
+      </c>
+      <c r="Q36" s="24"/>
+    </row>
+    <row r="37" spans="1:17" ht="18">
       <c r="A37" s="59"/>
-      <c r="B37" s="50"/>
+      <c r="B37" s="179"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="60"/>
+      <c r="E37" s="184"/>
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
       <c r="H37" s="60"/>
@@ -7349,13 +7789,17 @@
       <c r="M37" s="24">
         <v>840</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" ht="18">
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+    </row>
+    <row r="38" spans="1:17" ht="18">
       <c r="A38" s="59"/>
-      <c r="B38" s="50"/>
+      <c r="B38" s="179"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="60"/>
+      <c r="E38" s="184"/>
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
       <c r="H38" s="60"/>
@@ -7364,13 +7808,17 @@
       <c r="K38" s="60"/>
       <c r="L38" s="24"/>
       <c r="M38" s="24"/>
-    </row>
-    <row r="39" spans="1:13" ht="18">
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+    </row>
+    <row r="39" spans="1:17" ht="18">
       <c r="A39" s="59"/>
-      <c r="B39" s="50"/>
+      <c r="B39" s="179"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="60"/>
+      <c r="E39" s="184"/>
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
       <c r="H39" s="60"/>
@@ -7379,13 +7827,17 @@
       <c r="K39" s="60"/>
       <c r="L39" s="24"/>
       <c r="M39" s="24"/>
-    </row>
-    <row r="40" spans="1:13" ht="19" thickBot="1">
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+    </row>
+    <row r="40" spans="1:17" ht="19" thickBot="1">
       <c r="A40" s="61"/>
-      <c r="B40" s="62"/>
+      <c r="B40" s="192"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
-      <c r="E40" s="65"/>
+      <c r="E40" s="185"/>
       <c r="F40" s="63"/>
       <c r="G40" s="63"/>
       <c r="H40" s="65"/>
@@ -7394,15 +7846,19 @@
       <c r="K40" s="65"/>
       <c r="L40" s="63"/>
       <c r="M40" s="63"/>
-    </row>
-    <row r="41" spans="1:13" ht="19">
+      <c r="N40" s="63"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="63"/>
+    </row>
+    <row r="41" spans="1:17" ht="19">
       <c r="A41" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="B41" s="32"/>
+      <c r="B41" s="180"/>
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
-      <c r="E41" s="68"/>
+      <c r="E41" s="186"/>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
       <c r="H41" s="68"/>
@@ -7411,15 +7867,19 @@
       <c r="K41" s="68"/>
       <c r="L41" s="33"/>
       <c r="M41" s="33"/>
-    </row>
-    <row r="42" spans="1:13" ht="19">
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+    </row>
+    <row r="42" spans="1:17" ht="19">
       <c r="A42" s="69" t="s">
         <v>258</v>
       </c>
-      <c r="B42" s="70"/>
+      <c r="B42" s="187"/>
       <c r="C42" s="71"/>
       <c r="D42" s="71"/>
-      <c r="E42" s="70"/>
+      <c r="E42" s="187"/>
       <c r="F42" s="71"/>
       <c r="G42" s="71"/>
       <c r="H42" s="70"/>
@@ -7436,13 +7896,21 @@
       <c r="M42" s="71">
         <v>6647</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" ht="18">
+      <c r="N42" s="37"/>
+      <c r="O42" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="P42" s="37">
+        <v>14546</v>
+      </c>
+      <c r="Q42" s="37"/>
+    </row>
+    <row r="43" spans="1:17" ht="18">
       <c r="A43" s="73"/>
-      <c r="B43" s="51"/>
+      <c r="B43" s="181"/>
       <c r="C43" s="37"/>
       <c r="D43" s="37"/>
-      <c r="E43" s="51"/>
+      <c r="E43" s="181"/>
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
       <c r="H43" s="51"/>
@@ -7459,13 +7927,17 @@
       <c r="M43" s="37">
         <v>455</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" ht="18">
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37"/>
+    </row>
+    <row r="44" spans="1:17" ht="18">
       <c r="A44" s="73"/>
-      <c r="B44" s="36"/>
+      <c r="B44" s="39"/>
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
-      <c r="E44" s="36"/>
+      <c r="E44" s="39"/>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
       <c r="H44" s="51"/>
@@ -7482,13 +7954,17 @@
       <c r="M44" s="37">
         <v>101</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" ht="18">
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="37"/>
+    </row>
+    <row r="45" spans="1:17" ht="18">
       <c r="A45" s="73"/>
-      <c r="B45" s="36"/>
+      <c r="B45" s="39"/>
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
-      <c r="E45" s="36"/>
+      <c r="E45" s="39"/>
       <c r="F45" s="37"/>
       <c r="G45" s="37"/>
       <c r="H45" s="51"/>
@@ -7501,13 +7977,17 @@
       <c r="M45" s="37">
         <v>11776</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="18">
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="37"/>
+    </row>
+    <row r="46" spans="1:17" ht="18">
       <c r="A46" s="73"/>
-      <c r="B46" s="36"/>
+      <c r="B46" s="39"/>
       <c r="C46" s="37"/>
       <c r="D46" s="37"/>
-      <c r="E46" s="36"/>
+      <c r="E46" s="39"/>
       <c r="F46" s="37"/>
       <c r="G46" s="37"/>
       <c r="H46" s="51"/>
@@ -7518,13 +7998,17 @@
         <v>137</v>
       </c>
       <c r="M46" s="37"/>
-    </row>
-    <row r="47" spans="1:13" ht="18">
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="37"/>
+    </row>
+    <row r="47" spans="1:17" ht="18">
       <c r="A47" s="73"/>
-      <c r="B47" s="36"/>
+      <c r="B47" s="39"/>
       <c r="C47" s="37"/>
       <c r="D47" s="37"/>
-      <c r="E47" s="36"/>
+      <c r="E47" s="39"/>
       <c r="F47" s="37"/>
       <c r="G47" s="37"/>
       <c r="H47" s="51"/>
@@ -7533,13 +8017,17 @@
       <c r="K47" s="51"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
-    </row>
-    <row r="48" spans="1:13" ht="18">
+      <c r="N47" s="37"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="37"/>
+      <c r="Q47" s="37"/>
+    </row>
+    <row r="48" spans="1:17" ht="18">
       <c r="A48" s="73"/>
-      <c r="B48" s="36"/>
+      <c r="B48" s="39"/>
       <c r="C48" s="37"/>
       <c r="D48" s="37"/>
-      <c r="E48" s="36"/>
+      <c r="E48" s="39"/>
       <c r="F48" s="37"/>
       <c r="G48" s="37"/>
       <c r="H48" s="51"/>
@@ -7548,13 +8036,17 @@
       <c r="K48" s="51"/>
       <c r="L48" s="37"/>
       <c r="M48" s="37"/>
-    </row>
-    <row r="49" spans="1:13" ht="18">
+      <c r="N48" s="37"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="37"/>
+    </row>
+    <row r="49" spans="1:17" ht="18">
       <c r="A49" s="73"/>
-      <c r="B49" s="36"/>
+      <c r="B49" s="39"/>
       <c r="C49" s="37"/>
       <c r="D49" s="37"/>
-      <c r="E49" s="36"/>
+      <c r="E49" s="39"/>
       <c r="F49" s="37"/>
       <c r="G49" s="37"/>
       <c r="H49" s="51"/>
@@ -7563,13 +8055,17 @@
       <c r="K49" s="51"/>
       <c r="L49" s="37"/>
       <c r="M49" s="37"/>
-    </row>
-    <row r="50" spans="1:13" ht="18">
+      <c r="N49" s="37"/>
+      <c r="O49" s="37"/>
+      <c r="P49" s="37"/>
+      <c r="Q49" s="37"/>
+    </row>
+    <row r="50" spans="1:17" ht="18">
       <c r="A50" s="74"/>
-      <c r="B50" s="75"/>
+      <c r="B50" s="188"/>
       <c r="C50" s="76"/>
       <c r="D50" s="76"/>
-      <c r="E50" s="75"/>
+      <c r="E50" s="188"/>
       <c r="F50" s="76"/>
       <c r="G50" s="76"/>
       <c r="H50" s="100"/>
@@ -7578,12 +8074,16 @@
       <c r="K50" s="100"/>
       <c r="L50" s="76"/>
       <c r="M50" s="76"/>
-    </row>
-    <row r="51" spans="1:13" ht="19">
+      <c r="N50" s="76"/>
+      <c r="O50" s="76"/>
+      <c r="P50" s="76"/>
+      <c r="Q50" s="76"/>
+    </row>
+    <row r="51" spans="1:17" ht="19">
       <c r="A51" s="78" t="s">
         <v>259</v>
       </c>
-      <c r="B51" s="36">
+      <c r="B51" s="39">
         <v>9</v>
       </c>
       <c r="C51" s="37" t="s">
@@ -7592,9 +8092,7 @@
       <c r="D51" s="37">
         <v>15787</v>
       </c>
-      <c r="E51" s="36">
-        <v>3</v>
-      </c>
+      <c r="E51" s="39"/>
       <c r="F51" s="37" t="s">
         <v>23</v>
       </c>
@@ -7615,10 +8113,18 @@
       <c r="M51" s="37">
         <v>76</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" ht="19">
+      <c r="N51" s="6"/>
+      <c r="O51" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="P51" s="6">
+        <v>773</v>
+      </c>
+      <c r="Q51" s="6"/>
+    </row>
+    <row r="52" spans="1:17" ht="19">
       <c r="A52" s="79"/>
-      <c r="B52" s="36">
+      <c r="B52" s="39">
         <v>10</v>
       </c>
       <c r="C52" s="37" t="s">
@@ -7627,12 +8133,8 @@
       <c r="D52" s="37">
         <v>19204</v>
       </c>
-      <c r="E52" s="36">
-        <v>4</v>
-      </c>
-      <c r="F52" s="37" t="s">
-        <v>30</v>
-      </c>
+      <c r="E52" s="39"/>
+      <c r="F52" s="37"/>
       <c r="G52" s="37"/>
       <c r="H52" s="48"/>
       <c r="I52" s="86" t="s">
@@ -7649,10 +8151,18 @@
       <c r="M52" s="40">
         <v>5232</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" ht="19">
+      <c r="N52" s="6"/>
+      <c r="O52" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="P52" s="6">
+        <v>1409</v>
+      </c>
+      <c r="Q52" s="6"/>
+    </row>
+    <row r="53" spans="1:17" ht="19">
       <c r="A53" s="79"/>
-      <c r="B53" s="36">
+      <c r="B53" s="39">
         <v>11</v>
       </c>
       <c r="C53" s="37" t="s">
@@ -7661,12 +8171,8 @@
       <c r="D53" s="37">
         <v>6787</v>
       </c>
-      <c r="E53" s="36">
-        <v>5</v>
-      </c>
-      <c r="F53" s="37" t="s">
-        <v>37</v>
-      </c>
+      <c r="E53" s="39"/>
+      <c r="F53" s="37"/>
       <c r="G53" s="37"/>
       <c r="H53" s="48"/>
       <c r="I53" s="86" t="s">
@@ -7682,10 +8188,18 @@
       <c r="M53" s="37">
         <v>2813</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" ht="18">
+      <c r="N53" s="6"/>
+      <c r="O53" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="P53" s="6">
+        <v>4931</v>
+      </c>
+      <c r="Q53" s="6"/>
+    </row>
+    <row r="54" spans="1:17" ht="18">
       <c r="A54" s="35"/>
-      <c r="B54" s="36">
+      <c r="B54" s="39">
         <v>13</v>
       </c>
       <c r="C54" s="37" t="s">
@@ -7694,12 +8208,8 @@
       <c r="D54" s="37">
         <v>1755</v>
       </c>
-      <c r="E54" s="36">
-        <v>9</v>
-      </c>
-      <c r="F54" s="37" t="s">
-        <v>58</v>
-      </c>
+      <c r="E54" s="39"/>
+      <c r="F54" s="37"/>
       <c r="G54" s="37"/>
       <c r="H54" s="48"/>
       <c r="I54" s="86" t="s">
@@ -7715,8 +8225,16 @@
       <c r="M54" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" ht="18">
+      <c r="N54" s="6"/>
+      <c r="O54" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="P54" s="6">
+        <v>1169</v>
+      </c>
+      <c r="Q54" s="6"/>
+    </row>
+    <row r="55" spans="1:17" ht="18">
       <c r="A55" s="35"/>
       <c r="B55" s="39">
         <v>12</v>
@@ -7727,9 +8245,7 @@
       <c r="D55" s="40">
         <v>2314</v>
       </c>
-      <c r="E55" s="39">
-        <v>15</v>
-      </c>
+      <c r="E55" s="39"/>
       <c r="F55" s="40" t="s">
         <v>98</v>
       </c>
@@ -7746,18 +8262,22 @@
       <c r="K55" s="48"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
-    </row>
-    <row r="56" spans="1:13" ht="18">
+      <c r="N55" s="6"/>
+      <c r="O55" s="197" t="s">
+        <v>286</v>
+      </c>
+      <c r="P55" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q55" s="6"/>
+    </row>
+    <row r="56" spans="1:17" ht="18">
       <c r="A56" s="35"/>
-      <c r="B56" s="36"/>
+      <c r="B56" s="39"/>
       <c r="C56" s="37"/>
       <c r="D56" s="37"/>
-      <c r="E56" s="36">
-        <v>25</v>
-      </c>
-      <c r="F56" s="37" t="s">
-        <v>114</v>
-      </c>
+      <c r="E56" s="39"/>
+      <c r="F56" s="37"/>
       <c r="G56" s="37"/>
       <c r="H56" s="48"/>
       <c r="I56" s="6"/>
@@ -7765,15 +8285,21 @@
       <c r="K56" s="48"/>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
-    </row>
-    <row r="57" spans="1:13" ht="18">
+      <c r="N56" s="6"/>
+      <c r="O56" s="170" t="s">
+        <v>289</v>
+      </c>
+      <c r="P56" s="6">
+        <v>462</v>
+      </c>
+      <c r="Q56" s="6"/>
+    </row>
+    <row r="57" spans="1:17" ht="18">
       <c r="A57" s="35"/>
-      <c r="B57" s="36"/>
+      <c r="B57" s="39"/>
       <c r="C57" s="37"/>
       <c r="D57" s="37"/>
-      <c r="E57" s="39">
-        <v>7</v>
-      </c>
+      <c r="E57" s="39"/>
       <c r="F57" s="40" t="s">
         <v>49</v>
       </c>
@@ -7786,13 +8312,17 @@
       <c r="K57" s="48"/>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
-    </row>
-    <row r="58" spans="1:13" ht="18">
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+    </row>
+    <row r="58" spans="1:17" ht="18">
       <c r="A58" s="35"/>
-      <c r="B58" s="36"/>
+      <c r="B58" s="39"/>
       <c r="C58" s="37"/>
       <c r="D58" s="37"/>
-      <c r="E58" s="36"/>
+      <c r="E58" s="39"/>
       <c r="F58" s="37"/>
       <c r="G58" s="37"/>
       <c r="H58" s="48"/>
@@ -7801,13 +8331,17 @@
       <c r="K58" s="48"/>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
-    </row>
-    <row r="59" spans="1:13" ht="18">
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+    </row>
+    <row r="59" spans="1:17" ht="18">
       <c r="A59" s="35"/>
-      <c r="B59" s="36"/>
+      <c r="B59" s="39"/>
       <c r="C59" s="37"/>
       <c r="D59" s="37"/>
-      <c r="E59" s="36"/>
+      <c r="E59" s="39"/>
       <c r="F59" s="37"/>
       <c r="G59" s="37"/>
       <c r="H59" s="48"/>
@@ -7816,13 +8350,17 @@
       <c r="K59" s="48"/>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
-    </row>
-    <row r="60" spans="1:13" ht="18">
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+    </row>
+    <row r="60" spans="1:17" ht="18">
       <c r="A60" s="35"/>
-      <c r="B60" s="36"/>
+      <c r="B60" s="39"/>
       <c r="C60" s="37"/>
       <c r="D60" s="37"/>
-      <c r="E60" s="36"/>
+      <c r="E60" s="39"/>
       <c r="F60" s="37"/>
       <c r="G60" s="37"/>
       <c r="H60" s="48"/>
@@ -7831,13 +8369,17 @@
       <c r="K60" s="48"/>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
-    </row>
-    <row r="61" spans="1:13" ht="19" thickBot="1">
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+    </row>
+    <row r="61" spans="1:17" ht="19" thickBot="1">
       <c r="A61" s="41"/>
-      <c r="B61" s="42"/>
+      <c r="B61" s="175"/>
       <c r="C61" s="43"/>
       <c r="D61" s="43"/>
-      <c r="E61" s="42"/>
+      <c r="E61" s="175"/>
       <c r="F61" s="43"/>
       <c r="G61" s="43"/>
       <c r="H61" s="49"/>
@@ -7846,12 +8388,16 @@
       <c r="K61" s="49"/>
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
-    </row>
-    <row r="62" spans="1:13" ht="19">
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+    </row>
+    <row r="62" spans="1:17" ht="19">
       <c r="A62" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="B62" s="23">
+      <c r="B62" s="46">
         <v>14</v>
       </c>
       <c r="C62" s="24" t="s">
@@ -7860,12 +8406,8 @@
       <c r="D62" s="24">
         <v>3915</v>
       </c>
-      <c r="E62" s="19">
-        <v>6</v>
-      </c>
-      <c r="F62" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="E62" s="189"/>
+      <c r="F62" s="20"/>
       <c r="G62" s="20"/>
       <c r="H62" s="81"/>
       <c r="I62" s="119" t="s">
@@ -7881,10 +8423,22 @@
       <c r="M62" s="120">
         <v>3621</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" ht="19">
+      <c r="N62" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="O62" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="P62" s="47">
+        <v>194</v>
+      </c>
+      <c r="Q62" s="47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="19">
       <c r="A63" s="113"/>
-      <c r="B63" s="23">
+      <c r="B63" s="46">
         <v>15</v>
       </c>
       <c r="C63" s="24" t="s">
@@ -7893,7 +8447,7 @@
       <c r="D63" s="24">
         <v>87</v>
       </c>
-      <c r="E63" s="50"/>
+      <c r="E63" s="179"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="50"/>
@@ -7910,15 +8464,25 @@
       <c r="M63" s="47">
         <v>330</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" ht="19">
+      <c r="N63" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="O63" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="P63" s="47">
+        <v>2113</v>
+      </c>
+      <c r="Q63" s="47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="19">
       <c r="A64" s="113"/>
-      <c r="B64" s="3"/>
+      <c r="B64" s="193"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="23">
-        <v>8</v>
-      </c>
+      <c r="E64" s="46"/>
       <c r="F64" s="24" t="s">
         <v>52</v>
       </c>
@@ -7937,13 +8501,25 @@
       <c r="M64" s="47" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" ht="19">
+      <c r="N64" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="O64" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="P64" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="19">
       <c r="A65" s="113"/>
-      <c r="B65" s="23"/>
+      <c r="B65" s="46"/>
       <c r="C65" s="24"/>
       <c r="D65" s="24"/>
-      <c r="E65" s="50"/>
+      <c r="E65" s="179"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="50"/>
@@ -7958,13 +8534,25 @@
         <v>4</v>
       </c>
       <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="1:13" ht="19">
+      <c r="N65" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="O65" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="P65" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="19">
       <c r="A66" s="113"/>
-      <c r="B66" s="23"/>
+      <c r="B66" s="46"/>
       <c r="C66" s="24"/>
       <c r="D66" s="24"/>
-      <c r="E66" s="50"/>
+      <c r="E66" s="179"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="50"/>
@@ -7973,13 +8561,25 @@
       <c r="K66" s="50"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="1:13" ht="18">
+      <c r="N66" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="O66" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="P66" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="18">
       <c r="A67" s="22"/>
-      <c r="B67" s="23"/>
+      <c r="B67" s="46"/>
       <c r="C67" s="24"/>
       <c r="D67" s="24"/>
-      <c r="E67" s="23"/>
+      <c r="E67" s="46"/>
       <c r="F67" s="24"/>
       <c r="G67" s="24"/>
       <c r="H67" s="50"/>
@@ -7988,13 +8588,25 @@
       <c r="K67" s="50"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="1:13" ht="18">
+      <c r="N67" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="O67" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="P67" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="18">
       <c r="A68" s="22"/>
-      <c r="B68" s="23"/>
+      <c r="B68" s="46"/>
       <c r="C68" s="24"/>
       <c r="D68" s="24"/>
-      <c r="E68" s="23"/>
+      <c r="E68" s="46"/>
       <c r="F68" s="24"/>
       <c r="G68" s="24"/>
       <c r="H68" s="50"/>
@@ -8003,13 +8615,25 @@
       <c r="K68" s="50"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="1:13" ht="18">
+      <c r="N68" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="O68" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="P68" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="18">
       <c r="A69" s="22"/>
-      <c r="B69" s="23"/>
+      <c r="B69" s="46"/>
       <c r="C69" s="24"/>
       <c r="D69" s="24"/>
-      <c r="E69" s="23"/>
+      <c r="E69" s="46"/>
       <c r="F69" s="24"/>
       <c r="G69" s="24"/>
       <c r="H69" s="50"/>
@@ -8018,13 +8642,25 @@
       <c r="K69" s="50"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="1:13" ht="19" thickBot="1">
+      <c r="N69" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="O69" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="P69" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="19" thickBot="1">
       <c r="A70" s="26"/>
-      <c r="B70" s="27"/>
+      <c r="B70" s="176"/>
       <c r="C70" s="28"/>
       <c r="D70" s="28"/>
-      <c r="E70" s="27"/>
+      <c r="E70" s="176"/>
       <c r="F70" s="28"/>
       <c r="G70" s="28"/>
       <c r="H70" s="121"/>
@@ -8033,13 +8669,18 @@
       <c r="K70" s="121"/>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
-    </row>
-    <row r="71" spans="1:13" ht="19">
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+    </row>
+    <row r="71" spans="1:17" ht="19">
       <c r="A71" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="B71" s="32">
-        <v>16</v>
+      <c r="B71" s="174">
+        <f>D71/D80</f>
+        <v>1.3794321153867376E-3</v>
       </c>
       <c r="C71" s="33" t="s">
         <v>86</v>
@@ -8047,12 +8688,8 @@
       <c r="D71" s="33">
         <v>125</v>
       </c>
-      <c r="E71" s="32">
-        <v>10</v>
-      </c>
-      <c r="F71" s="33" t="s">
-        <v>63</v>
-      </c>
+      <c r="E71" s="180"/>
+      <c r="F71" s="33"/>
       <c r="G71" s="33"/>
       <c r="H71" s="122"/>
       <c r="I71" s="90" t="s">
@@ -8068,14 +8705,23 @@
       <c r="M71" s="91">
         <v>34</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" ht="19">
+      <c r="N71" s="40"/>
+      <c r="O71" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="P71" s="37">
+        <v>66</v>
+      </c>
+      <c r="Q71" s="40"/>
+    </row>
+    <row r="72" spans="1:17" ht="19">
       <c r="A72" s="79"/>
-      <c r="B72" s="48"/>
+      <c r="B72" s="177"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="36">
-        <v>16</v>
+      <c r="E72" s="190">
+        <f>G72/G80</f>
+        <v>7.9845702470558427E-3</v>
       </c>
       <c r="F72" s="37" t="s">
         <v>86</v>
@@ -8097,13 +8743,21 @@
       <c r="M72" s="40">
         <v>1734</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" ht="19">
+      <c r="N72" s="40"/>
+      <c r="O72" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="P72" s="37">
+        <v>92</v>
+      </c>
+      <c r="Q72" s="40"/>
+    </row>
+    <row r="73" spans="1:17" ht="19">
       <c r="A73" s="79"/>
-      <c r="B73" s="48"/>
+      <c r="B73" s="177"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
-      <c r="E73" s="48"/>
+      <c r="E73" s="177"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="48"/>
@@ -8120,13 +8774,17 @@
       <c r="M73" s="40">
         <v>204</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" ht="19">
+      <c r="N73" s="40"/>
+      <c r="O73" s="40"/>
+      <c r="P73" s="40"/>
+      <c r="Q73" s="40"/>
+    </row>
+    <row r="74" spans="1:17" ht="19">
       <c r="A74" s="79"/>
-      <c r="B74" s="48"/>
+      <c r="B74" s="177"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
-      <c r="E74" s="48"/>
+      <c r="E74" s="177"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="48"/>
@@ -8139,13 +8797,17 @@
       <c r="M74" s="40">
         <v>144</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" ht="19">
+      <c r="N74" s="40"/>
+      <c r="O74" s="40"/>
+      <c r="P74" s="40"/>
+      <c r="Q74" s="40"/>
+    </row>
+    <row r="75" spans="1:17" ht="19">
       <c r="A75" s="79"/>
-      <c r="B75" s="48"/>
+      <c r="B75" s="177"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
-      <c r="E75" s="48"/>
+      <c r="E75" s="177"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="48"/>
@@ -8154,13 +8816,17 @@
       <c r="K75" s="48"/>
       <c r="L75" s="106"/>
       <c r="M75" s="40"/>
-    </row>
-    <row r="76" spans="1:13" ht="19">
+      <c r="N75" s="40"/>
+      <c r="O75" s="40"/>
+      <c r="P75" s="40"/>
+      <c r="Q75" s="40"/>
+    </row>
+    <row r="76" spans="1:17" ht="19">
       <c r="A76" s="79"/>
-      <c r="B76" s="48"/>
+      <c r="B76" s="177"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
-      <c r="E76" s="48"/>
+      <c r="E76" s="177"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="48"/>
@@ -8173,13 +8839,17 @@
       <c r="M76" s="40">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" ht="19">
+      <c r="N76" s="40"/>
+      <c r="O76" s="40"/>
+      <c r="P76" s="40"/>
+      <c r="Q76" s="40"/>
+    </row>
+    <row r="77" spans="1:17" ht="19">
       <c r="A77" s="79"/>
-      <c r="B77" s="48"/>
+      <c r="B77" s="177"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
-      <c r="E77" s="48"/>
+      <c r="E77" s="177"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="48"/>
@@ -8192,13 +8862,17 @@
       <c r="M77" s="40">
         <v>33</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" ht="19">
+      <c r="N77" s="40"/>
+      <c r="O77" s="40"/>
+      <c r="P77" s="40"/>
+      <c r="Q77" s="40"/>
+    </row>
+    <row r="78" spans="1:17" ht="19">
       <c r="A78" s="79"/>
-      <c r="B78" s="48"/>
+      <c r="B78" s="177"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
-      <c r="E78" s="48"/>
+      <c r="E78" s="177"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="48"/>
@@ -8211,13 +8885,17 @@
       <c r="M78" s="40">
         <v>131</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" ht="20" thickBot="1">
+      <c r="N78" s="40"/>
+      <c r="O78" s="40"/>
+      <c r="P78" s="40"/>
+      <c r="Q78" s="40"/>
+    </row>
+    <row r="79" spans="1:17" ht="20" thickBot="1">
       <c r="A79" s="117"/>
-      <c r="B79" s="49"/>
+      <c r="B79" s="178"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
-      <c r="E79" s="49"/>
+      <c r="E79" s="178"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="49"/>
@@ -8226,8 +8904,12 @@
       <c r="K79" s="49"/>
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
-    </row>
-    <row r="80" spans="1:13" ht="19">
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+    </row>
+    <row r="80" spans="1:17" ht="19">
       <c r="A80" s="118" t="s">
         <v>269</v>
       </c>
@@ -8247,6 +8929,10 @@
       <c r="M80">
         <f>SUM(M2:M78)</f>
         <v>152310</v>
+      </c>
+      <c r="P80">
+        <f>SUM(P2:P72)</f>
+        <v>110868</v>
       </c>
     </row>
   </sheetData>
